--- a/data/Stress datasheet.xlsx
+++ b/data/Stress datasheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anu365-my.sharepoint.com/personal/u7409838_anu_edu_au/Documents/GitHub/CORT_Temp_Stressor_response/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3069" documentId="13_ncr:1_{470C8D95-06F8-B740-82BB-C0D2ADC61D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F248340-4C91-4340-AE99-9DAAC2B0DEE0}"/>
+  <xr:revisionPtr revIDLastSave="3117" documentId="13_ncr:1_{470C8D95-06F8-B740-82BB-C0D2ADC61D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A82FE5E-18E1-0946-B541-A860A16E6636}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1080" windowWidth="27640" windowHeight="15680" activeTab="2" xr2:uid="{54D204EE-96F2-1842-ADFD-93246B0E96AB}"/>
+    <workbookView xWindow="1160" yWindow="1080" windowWidth="27640" windowHeight="15680" activeTab="3" xr2:uid="{54D204EE-96F2-1842-ADFD-93246B0E96AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="423">
   <si>
     <t>lizard_id</t>
   </si>
@@ -1298,6 +1299,15 @@
   </si>
   <si>
     <t>food_ingested</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -21450,8 +21460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29EE812-BCF7-6E48-92F6-1A2074A3F805}">
   <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="3" sqref="B1:B1048576 D1:D1048576 E1:E1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31337,4 +31347,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2421B6C8-F94D-054D-9257-BBFE786141C2}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C90">
+    <sortCondition ref="A2:A90"/>
+    <sortCondition ref="B2:B90"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>